--- a/temp/Temp_PVRP_Solutions.xlsx
+++ b/temp/Temp_PVRP_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="15">
   <si>
     <t>0_NAME</t>
   </si>
@@ -179,25 +179,25 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1205.459228515625</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>160.0</v>
+        <v>960.0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.9999992E7</v>
+        <v>5.9999992E7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J3" t="n">
         <v>-1.0</v>
@@ -217,19 +217,19 @@
         <v>-1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>602.7295913696289</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.0</v>
+        <v>160.0</v>
       </c>
       <c r="H4" t="n">
         <v>9999999.0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="n">
         <v>-1.0</v>
@@ -249,19 +249,19 @@
         <v>-1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>181.54156494140625</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>40.0</v>
+        <v>480.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9999998E7</v>
+        <v>2.9999996E7</v>
       </c>
       <c r="I5" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="J5" t="n">
         <v>-1.0</v>
@@ -275,10 +275,10 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -304,16 +304,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>17.0</v>
+        <v>51.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-28.97800064086914</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.764999866485596</v>
+        <v>40.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>160.0</v>
       </c>
       <c r="F7" t="n">
         <v>-1.0</v>
@@ -336,16 +336,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-34.64099884033203</v>
+        <v>30.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
         <v>-1.0</v>
@@ -360,39 +360,39 @@
         <v>-1.0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-17.320999145507812</v>
+        <v>-1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.0</v>
+        <v>480.0</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.0</v>
+        <v>2.9999996E7</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="10">
@@ -400,16 +400,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
         <v>-1.0</v>
@@ -424,7 +424,7 @@
         <v>-1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -432,16 +432,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="F11" t="n">
         <v>-1.0</v>
@@ -456,7 +456,7 @@
         <v>-1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -464,16 +464,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.0</v>
+        <v>35.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F12" t="n">
         <v>-1.0</v>
@@ -488,39 +488,39 @@
         <v>-1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.0</v>
+        <v>52.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.0</v>
+        <v>64.0</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.13238525390625</v>
+        <v>-1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>40.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.9999998E7</v>
+        <v>-1.0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -528,16 +528,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="F14" t="n">
         <v>-1.0</v>
@@ -552,7 +552,7 @@
         <v>-1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -560,16 +560,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="C15" t="n">
-        <v>17.320999145507812</v>
+        <v>16.0</v>
       </c>
       <c r="D15" t="n">
-        <v>10.0</v>
+        <v>57.0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="F15" t="n">
         <v>-1.0</v>
@@ -584,7 +584,7 @@
         <v>-1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -592,16 +592,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.0</v>
+        <v>24.0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.64099884033203</v>
+        <v>8.0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.0</v>
+        <v>52.0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F16" t="n">
         <v>-1.0</v>
@@ -616,7 +616,7 @@
         <v>-1.0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -624,16 +624,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C17" t="n">
-        <v>50.0</v>
+        <v>12.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="F17" t="n">
         <v>-1.0</v>
@@ -648,7 +648,7 @@
         <v>-1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -659,13 +659,13 @@
         <v>13.0</v>
       </c>
       <c r="C18" t="n">
-        <v>28.97800064086914</v>
+        <v>5.0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.764999866485596</v>
+        <v>25.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F18" t="n">
         <v>-1.0</v>
@@ -688,16 +688,16 @@
         <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="C19" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E19" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F19" t="n">
         <v>-1.0</v>
@@ -712,7 +712,7 @@
         <v>-1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -720,16 +720,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F20" t="n">
         <v>-1.0</v>
@@ -744,39 +744,39 @@
         <v>-1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>2.0</v>
+        <v>46.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.0</v>
+        <v>32.0</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="E21" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="F21" t="n">
-        <v>177.78799438476562</v>
+        <v>-1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>40.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.9999998E7</v>
+        <v>-1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -784,13 +784,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
@@ -813,66 +813,66 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-17.320999145507812</v>
+        <v>-1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.0</v>
+        <v>160.0</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.0</v>
+        <v>9999999.0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.9999996E7</v>
+      </c>
+      <c r="I24" t="n">
         <v>11.0</v>
       </c>
-      <c r="C24" t="n">
-        <v>-34.64099884033203</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-20.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-1.0</v>
-      </c>
       <c r="J24" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="25">
@@ -880,16 +880,16 @@
         <v>14</v>
       </c>
       <c r="B25" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-21.21299934387207</v>
+        <v>30.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-21.21299934387207</v>
+        <v>40.0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
         <v>-1.0</v>
@@ -904,7 +904,7 @@
         <v>-1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -912,16 +912,16 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="n">
-        <v>50.0</v>
+        <v>17.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="E26" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="F26" t="n">
         <v>-1.0</v>
@@ -936,7 +936,7 @@
         <v>-1.0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0</v>
+        <v>48.0</v>
       </c>
       <c r="C27" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="F27" t="n">
         <v>-1.0</v>
@@ -968,7 +968,7 @@
         <v>-1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -976,16 +976,16 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.0</v>
+        <v>16.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="F28" t="n">
         <v>-1.0</v>
@@ -1000,39 +1000,39 @@
         <v>-1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>3.0</v>
+        <v>34.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.0</v>
+        <v>61.0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.0</v>
+        <v>33.0</v>
       </c>
       <c r="E29" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F29" t="n">
-        <v>125.26764678955078</v>
+        <v>-1.0</v>
       </c>
       <c r="G29" t="n">
-        <v>40.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.9999998E7</v>
+        <v>-1.0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1040,16 +1040,16 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="F30" t="n">
         <v>-1.0</v>
@@ -1064,7 +1064,7 @@
         <v>-1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1072,16 +1072,16 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E31" t="n">
         <v>14.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>21.21299934387207</v>
-      </c>
-      <c r="D31" t="n">
-        <v>21.21299934387207</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.0</v>
       </c>
       <c r="F31" t="n">
         <v>-1.0</v>
@@ -1104,16 +1104,16 @@
         <v>14</v>
       </c>
       <c r="B32" t="n">
-        <v>9.0</v>
+        <v>45.0</v>
       </c>
       <c r="C32" t="n">
-        <v>34.64099884033203</v>
+        <v>39.0</v>
       </c>
       <c r="D32" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F32" t="n">
         <v>-1.0</v>
@@ -1128,7 +1128,7 @@
         <v>-1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -1136,16 +1136,16 @@
         <v>14</v>
       </c>
       <c r="B33" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="C33" t="n">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="E33" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F33" t="n">
         <v>-1.0</v>
@@ -1160,7 +1160,7 @@
         <v>-1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1168,16 +1168,16 @@
         <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>5.0</v>
+        <v>47.0</v>
       </c>
       <c r="C34" t="n">
-        <v>17.320999145507812</v>
+        <v>25.0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.0</v>
+        <v>32.0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
       <c r="F34" t="n">
         <v>-1.0</v>
@@ -1192,7 +1192,7 @@
         <v>-1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -1200,16 +1200,16 @@
         <v>14</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C35" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E35" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" t="n">
         <v>-1.0</v>
@@ -1224,103 +1224,103 @@
         <v>-1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E36" t="n">
         <v>0.0</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.0</v>
+        <v>480.0</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.0</v>
+        <v>2.9999996E7</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.0</v>
+        <v>9.0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.0</v>
+        <v>30.0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.0</v>
+        <v>40.0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>602.7295913696289</v>
+        <v>-1.0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H37" t="n">
-        <v>9999999.0</v>
+        <v>-1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.0</v>
+        <v>38.0</v>
       </c>
       <c r="E38" t="n">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="F38" t="n">
-        <v>181.54156494140625</v>
+        <v>-1.0</v>
       </c>
       <c r="G38" t="n">
-        <v>40.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.9999998E7</v>
+        <v>-1.0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -1328,16 +1328,16 @@
         <v>14</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="F39" t="n">
         <v>-1.0</v>
@@ -1352,7 +1352,7 @@
         <v>-1.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -1360,16 +1360,16 @@
         <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="C40" t="n">
-        <v>28.97800064086914</v>
+        <v>10.0</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.764999866485596</v>
+        <v>17.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
       <c r="F40" t="n">
         <v>-1.0</v>
@@ -1392,16 +1392,16 @@
         <v>14</v>
       </c>
       <c r="B41" t="n">
-        <v>12.0</v>
+        <v>33.0</v>
       </c>
       <c r="C41" t="n">
-        <v>34.64099884033203</v>
+        <v>46.0</v>
       </c>
       <c r="D41" t="n">
-        <v>-20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="F41" t="n">
         <v>-1.0</v>
@@ -1416,7 +1416,7 @@
         <v>-1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -1424,16 +1424,16 @@
         <v>14</v>
       </c>
       <c r="B42" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C42" t="n">
-        <v>17.320999145507812</v>
+        <v>52.0</v>
       </c>
       <c r="D42" t="n">
-        <v>-10.0</v>
+        <v>33.0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="F42" t="n">
         <v>-1.0</v>
@@ -1448,7 +1448,7 @@
         <v>-1.0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -1456,16 +1456,16 @@
         <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C43" t="n">
-        <v>-50.0</v>
+        <v>37.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F43" t="n">
         <v>-1.0</v>
@@ -1480,7 +1480,7 @@
         <v>-1.0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1488,16 +1488,16 @@
         <v>14</v>
       </c>
       <c r="B44" t="n">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
       <c r="C44" t="n">
-        <v>-10.0</v>
+        <v>30.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="F44" t="n">
         <v>-1.0</v>
@@ -1512,7 +1512,7 @@
         <v>-1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -1523,10 +1523,10 @@
         <v>-1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E45" t="n">
         <v>0.0</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C46" t="n">
         <v>-1.0</v>
@@ -1561,19 +1561,19 @@
         <v>-1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>118.13238525390625</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>40.0</v>
+        <v>160.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.9999998E7</v>
+        <v>9999999.0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="J46" t="n">
         <v>-1.0</v>
@@ -1581,34 +1581,34 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E47" t="n">
         <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.0</v>
+        <v>480.0</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.0</v>
+        <v>2.9999996E7</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1616,16 +1616,16 @@
         <v>14</v>
       </c>
       <c r="B48" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>-17.320999145507812</v>
+        <v>30.0</v>
       </c>
       <c r="D48" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
         <v>-1.0</v>
@@ -1640,7 +1640,7 @@
         <v>-1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1648,16 +1648,16 @@
         <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C49" t="n">
-        <v>-34.64099884033203</v>
+        <v>20.0</v>
       </c>
       <c r="D49" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F49" t="n">
         <v>-1.0</v>
@@ -1672,7 +1672,7 @@
         <v>-1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1680,16 +1680,16 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C50" t="n">
-        <v>-50.0</v>
+        <v>27.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="E50" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" t="n">
         <v>-1.0</v>
@@ -1704,7 +1704,7 @@
         <v>-1.0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1712,16 +1712,16 @@
         <v>14</v>
       </c>
       <c r="B51" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E51" t="n">
         <v>16.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-28.97800064086914</v>
-      </c>
-      <c r="D51" t="n">
-        <v>7.764999866485596</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.0</v>
       </c>
       <c r="F51" t="n">
         <v>-1.0</v>
@@ -1744,16 +1744,16 @@
         <v>14</v>
       </c>
       <c r="B52" t="n">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.0</v>
+        <v>32.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="E52" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F52" t="n">
         <v>-1.0</v>
@@ -1768,7 +1768,7 @@
         <v>-1.0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -1776,16 +1776,16 @@
         <v>14</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="F53" t="n">
         <v>-1.0</v>
@@ -1800,39 +1800,39 @@
         <v>-1.0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.0</v>
+        <v>58.0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.0</v>
+        <v>27.0</v>
       </c>
       <c r="E54" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F54" t="n">
-        <v>177.78799438476562</v>
+        <v>-1.0</v>
       </c>
       <c r="G54" t="n">
-        <v>40.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.9999998E7</v>
+        <v>-1.0</v>
       </c>
       <c r="I54" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J54" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -1840,16 +1840,16 @@
         <v>14</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F55" t="n">
         <v>-1.0</v>
@@ -1864,7 +1864,7 @@
         <v>-1.0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -1872,16 +1872,16 @@
         <v>14</v>
       </c>
       <c r="B56" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="C56" t="n">
-        <v>17.320999145507812</v>
+        <v>57.0</v>
       </c>
       <c r="D56" t="n">
-        <v>-10.0</v>
+        <v>58.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="F56" t="n">
         <v>-1.0</v>
@@ -1896,7 +1896,7 @@
         <v>-1.0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1904,16 +1904,16 @@
         <v>14</v>
       </c>
       <c r="B57" t="n">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="C57" t="n">
-        <v>34.64099884033203</v>
+        <v>37.0</v>
       </c>
       <c r="D57" t="n">
-        <v>-20.0</v>
+        <v>69.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="F57" t="n">
         <v>-1.0</v>
@@ -1928,7 +1928,7 @@
         <v>-1.0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -1936,16 +1936,16 @@
         <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="C58" t="n">
-        <v>21.21299934387207</v>
+        <v>31.0</v>
       </c>
       <c r="D58" t="n">
-        <v>-21.21299934387207</v>
+        <v>62.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F58" t="n">
         <v>-1.0</v>
@@ -1968,16 +1968,16 @@
         <v>14</v>
       </c>
       <c r="B59" t="n">
-        <v>4.0</v>
+        <v>32.0</v>
       </c>
       <c r="C59" t="n">
-        <v>-50.0</v>
+        <v>38.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="E59" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="F59" t="n">
         <v>-1.0</v>
@@ -1992,7 +1992,7 @@
         <v>-1.0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -2000,16 +2000,16 @@
         <v>14</v>
       </c>
       <c r="B60" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C60" t="n">
-        <v>-10.0</v>
+        <v>30.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E60" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" t="n">
         <v>-1.0</v>
@@ -2024,71 +2024,71 @@
         <v>-1.0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E61" t="n">
         <v>0.0</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.0</v>
+        <v>480.0</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.0</v>
+        <v>2.9999996E7</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.0</v>
+        <v>14.0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.0</v>
+        <v>30.0</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.0</v>
+        <v>40.0</v>
       </c>
       <c r="E62" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" t="n">
-        <v>125.26764678955078</v>
+        <v>-1.0</v>
       </c>
       <c r="G62" t="n">
-        <v>40.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.9999998E7</v>
+        <v>-1.0</v>
       </c>
       <c r="I62" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J62" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -2096,16 +2096,16 @@
         <v>14</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F63" t="n">
         <v>-1.0</v>
@@ -2120,7 +2120,7 @@
         <v>-1.0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -2128,16 +2128,16 @@
         <v>14</v>
       </c>
       <c r="B64" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="C64" t="n">
-        <v>-21.21299934387207</v>
+        <v>42.0</v>
       </c>
       <c r="D64" t="n">
-        <v>21.21299934387207</v>
+        <v>57.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F64" t="n">
         <v>-1.0</v>
@@ -2160,16 +2160,16 @@
         <v>14</v>
       </c>
       <c r="B65" t="n">
-        <v>10.0</v>
+        <v>28.0</v>
       </c>
       <c r="C65" t="n">
-        <v>-34.64099884033203</v>
+        <v>43.0</v>
       </c>
       <c r="D65" t="n">
-        <v>20.0</v>
+        <v>67.0</v>
       </c>
       <c r="E65" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="F65" t="n">
         <v>-1.0</v>
@@ -2184,7 +2184,7 @@
         <v>-1.0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -2192,16 +2192,16 @@
         <v>14</v>
       </c>
       <c r="B66" t="n">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="C66" t="n">
-        <v>-50.0</v>
+        <v>63.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
       <c r="E66" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F66" t="n">
         <v>-1.0</v>
@@ -2216,7 +2216,7 @@
         <v>-1.0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -2224,16 +2224,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C67" t="n">
-        <v>-17.320999145507812</v>
+        <v>49.0</v>
       </c>
       <c r="D67" t="n">
-        <v>10.0</v>
+        <v>49.0</v>
       </c>
       <c r="E67" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="F67" t="n">
         <v>-1.0</v>
@@ -2248,7 +2248,7 @@
         <v>-1.0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -2256,16 +2256,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="n">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.0</v>
+        <v>58.0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="E68" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F68" t="n">
         <v>-1.0</v>
@@ -2280,7 +2280,7 @@
         <v>-1.0</v>
       </c>
       <c r="J68" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -2288,16 +2288,16 @@
         <v>14</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.0</v>
+        <v>21.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F69" t="n">
         <v>-1.0</v>
@@ -2312,6 +2312,198 @@
         <v>-1.0</v>
       </c>
       <c r="J69" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/temp/Temp_PVRP_Solutions.xlsx
+++ b/temp/Temp_PVRP_Solutions.xlsx
@@ -194,7 +194,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>729.301025390625</v>
+        <v>8.02871296E8</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -219,10 +219,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>1458.0</v>
+        <v>1216769.0</v>
       </c>
       <c r="F4" t="n">
-        <v>729.301025390625</v>
+        <v>939675.978761673</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -247,10 +247,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>64.49806213378906</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -339,10 +339,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>64.49806213378906</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -431,10 +431,10 @@
         <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>64.49806213378906</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -523,10 +523,10 @@
         <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>64.49806213378906</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -615,10 +615,10 @@
         <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>64.49806213378906</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -707,10 +707,10 @@
         <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>64.49806213378906</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -799,10 +799,10 @@
         <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>64.49806213378906</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>

--- a/temp/Temp_PVRP_Solutions.xlsx
+++ b/temp/Temp_PVRP_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="17">
   <si>
     <t>0_NAME</t>
   </si>
@@ -194,7 +194,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1664.69970703125</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -219,10 +219,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>641.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>590.2605972290039</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -247,15 +247,15 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>125.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>83.86216735839844</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -298,13 +298,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -313,7 +313,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -322,35 +322,39 @@
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
+        <v>18.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -358,13 +362,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.0</v>
+        <v>41.0</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>17.0</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -373,7 +377,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -382,7 +386,7 @@
         <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -390,13 +394,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.0</v>
+        <v>25.0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -405,7 +409,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -414,67 +418,67 @@
         <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>101.64966583251953</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -511,30 +515,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>11</v>
+        <v>12.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -542,13 +550,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.0</v>
+        <v>33.0</v>
       </c>
       <c r="C15" t="n">
-        <v>30.0</v>
+        <v>46.0</v>
       </c>
       <c r="D15" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -557,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -566,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -574,13 +582,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.0</v>
+        <v>49.0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0</v>
+        <v>48.0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -589,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -598,35 +606,39 @@
         <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
+        <v>30.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -634,13 +646,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.0</v>
+        <v>34.0</v>
       </c>
       <c r="C18" t="n">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
       <c r="D18" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -649,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -658,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
@@ -666,13 +678,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C19" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -681,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -690,95 +702,99 @@
         <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>11</v>
+        <v>38.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>136.73878479003906</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -815,30 +831,34 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
+        <v>27.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -846,13 +866,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.0</v>
+        <v>48.0</v>
       </c>
       <c r="C25" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -861,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -870,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -878,13 +898,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D26" t="n">
-        <v>40.0</v>
+        <v>62.0</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -893,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -902,35 +922,39 @@
         <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
+        <v>31.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -938,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.0</v>
+        <v>28.0</v>
       </c>
       <c r="C28" t="n">
-        <v>30.0</v>
+        <v>43.0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.0</v>
+        <v>67.0</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -953,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -962,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -970,23 +994,23 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C29" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n">
         <v>30.0</v>
       </c>
-      <c r="D29" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H29" t="s">
         <v>11</v>
       </c>
@@ -994,35 +1018,39 @@
         <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>11</v>
+        <v>34.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -1030,13 +1058,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="C31" t="n">
-        <v>30.0</v>
+        <v>59.0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1045,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -1054,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -1094,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1103,15 +1131,15 @@
         <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>144.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>147.21791076660156</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1154,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C35" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D35" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1169,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1178,63 +1206,71 @@
         <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>11</v>
+        <v>45.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>11</v>
+        <v>33.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -1242,13 +1278,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C38" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="D38" t="n">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1257,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1266,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -1274,13 +1310,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.0</v>
+        <v>49.0</v>
       </c>
       <c r="C39" t="n">
-        <v>30.0</v>
+        <v>48.0</v>
       </c>
       <c r="D39" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1289,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1298,35 +1334,39 @@
         <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>11</v>
+        <v>9.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -1334,13 +1374,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.0</v>
+        <v>38.0</v>
       </c>
       <c r="C41" t="n">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="D41" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1349,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1358,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1366,13 +1406,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.0</v>
+        <v>35.0</v>
       </c>
       <c r="C42" t="n">
-        <v>30.0</v>
+        <v>62.0</v>
       </c>
       <c r="D42" t="n">
-        <v>40.0</v>
+        <v>63.0</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1381,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1390,35 +1430,39 @@
         <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>11</v>
+        <v>3.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -1455,62 +1499,62 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>120.79206848144531</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1518,13 +1562,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.0</v>
+        <v>46.0</v>
       </c>
       <c r="C47" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D47" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1533,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1542,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1550,14 +1594,14 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D48" t="n">
         <v>30.0</v>
       </c>
-      <c r="D48" t="n">
-        <v>40.0</v>
-      </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -1574,35 +1618,39 @@
         <v>11</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>11</v>
+        <v>39.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -1610,13 +1658,13 @@
         <v>16</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.0</v>
+        <v>44.0</v>
       </c>
       <c r="C50" t="n">
         <v>30.0</v>
       </c>
       <c r="D50" t="n">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1625,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1634,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1642,30 +1690,3310 @@
         <v>16</v>
       </c>
       <c r="B51" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C54" t="n">
         <v>30.0</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D54" t="n">
         <v>40.0</v>
       </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="n">
+        <v>695.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>549.1892852783203</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>81.95686340332031</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>102.28327178955078</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>149.85682678222656</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>87.99797058105469</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>127.09435272216797</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>525.2498397827148</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>126.12226104736328</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>111.28813934326172</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" t="s">
+        <v>11</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100.74381256103516</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" t="s">
+        <v>11</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" t="s">
+        <v>11</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>103.23345947265625</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" t="s">
+        <v>11</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>83.86216735839844</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" t="s">
+        <v>11</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" t="s">
+        <v>11</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" t="s">
+        <v>11</v>
+      </c>
+      <c r="J155" t="n">
         <v>0.0</v>
       </c>
     </row>
